--- a/Lab3/src/results/naive.xlsx
+++ b/Lab3/src/results/naive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu365-my.sharepoint.com/personal/ncrothers_smu_edu/Documents/CS 3353/Repo/Lab3/src/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92126A37-3AA6-4461-8E81-3D1DD2C8FADB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{92126A37-3AA6-4461-8E81-3D1DD2C8FADB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E64BFF77-5B55-4B57-8D90-8BB312D5B7FA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="naive" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -662,6 +661,45 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>naive!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>naive!$C$1:$C$10</c:f>
@@ -726,6 +764,45 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>naive!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>naive!$F$1:$F$10</c:f>
@@ -733,34 +810,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2039736797138047E-5</c:v>
+                  <c:v>1.2464736797138046E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.815894718855219E-5</c:v>
+                  <c:v>4.9858947188552183E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4079473594276095E-4</c:v>
+                  <c:v>2.4929473594276094E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4447684156565657E-3</c:v>
+                  <c:v>1.4957684156565656E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.011337890959596E-2</c:v>
+                  <c:v>1.047037890959596E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0907031276767682E-2</c:v>
+                  <c:v>8.376303127676768E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72816328149090914</c:v>
+                  <c:v>0.75386728149090909</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2816328149090914</c:v>
+                  <c:v>7.5386728149090905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.097960963999995</c:v>
+                  <c:v>82.925400963999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>961.175531568</c:v>
+                  <c:v>995.10481156799995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -791,6 +868,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1839,7 +1917,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1859,16 +1937,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1">
-        <f>C1/A1</f>
-        <v>4.25E-6</v>
+        <f>C1/D1</f>
+        <v>5.6666666666666669E-6</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" ref="F1:F10" si="0">D1*$G$1</f>
-        <v>1.2039736797138047E-5</v>
+        <v>1.2464736797138046E-5</v>
       </c>
       <c r="G1" s="1">
         <f>AVERAGE(E1:E10)</f>
-        <v>4.0132455990460158E-6</v>
+        <v>4.1549122657126822E-6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1891,7 +1969,7 @@
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>4.815894718855219E-5</v>
+        <v>4.9858947188552183E-5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1914,7 +1992,7 @@
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>2.4079473594276095E-4</v>
+        <v>2.4929473594276094E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1937,7 +2015,7 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>1.4447684156565657E-3</v>
+        <v>1.4957684156565656E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1960,7 +2038,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>1.011337890959596E-2</v>
+        <v>1.047037890959596E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1983,7 +2061,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>8.0907031276767682E-2</v>
+        <v>8.376303127676768E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2006,7 +2084,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.72816328149090914</v>
+        <v>0.75386728149090909</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2029,7 +2107,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>7.2816328149090914</v>
+        <v>7.5386728149090905</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2052,7 +2130,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>80.097960963999995</v>
+        <v>82.925400963999991</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2075,7 +2153,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>961.175531568</v>
+        <v>995.10481156799995</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2090,18 +2168,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2328,6 +2406,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA8C982-D6F9-4BF9-B485-7A2348108706}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34C8312E-7D2E-4072-A7E4-6534CC12712D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="4c8c983e-25d7-4138-9944-d2c4b6ec6596"/>
@@ -2340,14 +2426,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA8C982-D6F9-4BF9-B485-7A2348108706}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
